--- a/mbs-perturbation/chatty/MLP/nearmiss/chatty-mlp-nearmiss-results.xlsx
+++ b/mbs-perturbation/chatty/MLP/nearmiss/chatty-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7534722222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8362235067437379</v>
+        <v>0.8750000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.843158290984378</v>
+        <v>0.9318652362130624</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9663865546218487</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8913043478260869</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9425287356321839</v>
+        <v>0.9829059829059829</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9965179747788443</v>
+        <v>0.9996423865989083</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9241071428571429</v>
+        <v>0.9543568464730291</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9118942731277534</v>
+        <v>0.9766454352441614</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9589603024574669</v>
+        <v>0.99234404536862</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8625954198473282</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9826086956521739</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9186991869918698</v>
+        <v>0.9978308026030369</v>
       </c>
       <c r="E5" t="n">
-        <v>0.978695652173913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9664804469273743</v>
+        <v>0.9913793103448276</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7521739130434782</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8459657701711492</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9012854442344045</v>
+        <v>0.9929678638941399</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9013310463708135</v>
+        <v>0.9371142969776958</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8930961791831358</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8910622945333389</v>
+        <v>0.9656106432848354</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9357235329258013</v>
+        <v>0.9833639064149462</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chatty/MLP/nearmiss/chatty-mlp-nearmiss-results.xlsx
+++ b/mbs-perturbation/chatty/MLP/nearmiss/chatty-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7638376383763837</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8750000000000001</v>
+        <v>0.8661087866108786</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9318652362130624</v>
+        <v>0.8256572835377184</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9663865546218487</v>
+        <v>0.9447004608294931</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9903381642512077</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9829059829059829</v>
+        <v>0.9669811320754716</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9996423865989083</v>
+        <v>0.9928929765886289</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9543568464730291</v>
+        <v>0.9490740740740741</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9855769230769231</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9766454352441614</v>
+        <v>0.9669811320754716</v>
       </c>
       <c r="E4" t="n">
-        <v>0.99234404536862</v>
+        <v>0.9838698439241917</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9956709956709957</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9855769230769231</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9978308026030369</v>
+        <v>0.9927360774818402</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9913793103448276</v>
+        <v>0.9951690821256038</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9951690821256038</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9951690821256038</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9929678638941399</v>
+        <v>0.9998132978599267</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9371142969776958</v>
+        <v>0.930556251081111</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9913322185061316</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9656106432848354</v>
+        <v>0.9575952420738532</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9833639064149462</v>
+        <v>0.9604466803820932</v>
       </c>
     </row>
   </sheetData>
